--- a/models/Multi_dimentional_data_covar/08_Sympathiewerte_1.xlsx
+++ b/models/Multi_dimentional_data_covar/08_Sympathiewerte_1.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-3720" yWindow="1170" windowWidth="13995" windowHeight="11010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Merkel</t>
   </si>
@@ -43,6 +48,9 @@
   </si>
   <si>
     <t>Kretschmann</t>
+  </si>
+  <si>
+    <t>Datum</t>
   </si>
 </sst>
 </file>
@@ -122,14 +130,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -137,23 +145,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -201,7 +209,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -504,21 +512,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:G5"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="3" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="12" style="15" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="12"/>
+    <col min="10" max="10" width="12.6640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="B1" s="19" t="s">
         <v>3</v>
       </c>
@@ -528,7 +535,7 @@
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="B2" s="21" t="s">
         <v>4</v>
       </c>
@@ -538,7 +545,7 @@
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -546,7 +553,7 @@
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="22" t="s">
         <v>5</v>
@@ -559,18 +566,21 @@
       <c r="H5" s="1"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="2" customFormat="1">
       <c r="A6" s="10"/>
       <c r="G6" s="15"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="9" customFormat="1">
       <c r="A7" s="10"/>
       <c r="G7" s="15"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="2" customFormat="1">
       <c r="A8" s="10"/>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
@@ -591,12 +601,12 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="2" customFormat="1">
       <c r="A9" s="10"/>
       <c r="G9" s="15"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="2" customFormat="1">
       <c r="A10" s="10"/>
       <c r="B10" s="4">
         <v>36546</v>
@@ -611,7 +621,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="2" customFormat="1">
       <c r="A11" s="10"/>
       <c r="B11" s="4">
         <v>36574</v>
@@ -626,7 +636,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="2" customFormat="1">
       <c r="A12" s="10"/>
       <c r="B12" s="4">
         <v>36602</v>
@@ -641,7 +651,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" s="2" customFormat="1">
       <c r="A13" s="10"/>
       <c r="B13" s="4">
         <v>36630</v>
@@ -656,7 +666,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="2" customFormat="1">
       <c r="A14" s="10"/>
       <c r="B14" s="4">
         <v>36665</v>
@@ -671,7 +681,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" s="2" customFormat="1">
       <c r="A15" s="10"/>
       <c r="B15" s="4">
         <v>36700</v>
@@ -686,7 +696,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" s="2" customFormat="1">
       <c r="A16" s="10"/>
       <c r="B16" s="4">
         <v>36735</v>
@@ -701,7 +711,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="2" customFormat="1">
       <c r="A17" s="10"/>
       <c r="B17" s="4">
         <v>36763</v>
@@ -716,7 +726,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="2" customFormat="1">
       <c r="A18" s="10"/>
       <c r="B18" s="4">
         <v>36791</v>
@@ -731,7 +741,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="2" customFormat="1">
       <c r="A19" s="10"/>
       <c r="B19" s="4">
         <v>36819</v>
@@ -746,7 +756,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="2" customFormat="1">
       <c r="A20" s="10"/>
       <c r="B20" s="4">
         <v>36847</v>
@@ -761,7 +771,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="2" customFormat="1">
       <c r="A21" s="10"/>
       <c r="B21" s="4">
         <v>36875</v>
@@ -776,7 +786,7 @@
       <c r="H21" s="5"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="2" customFormat="1">
       <c r="A22" s="10"/>
       <c r="B22" s="4">
         <v>36910</v>
@@ -791,7 +801,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="2" customFormat="1">
       <c r="A23" s="10"/>
       <c r="B23" s="4">
         <v>36938</v>
@@ -806,7 +816,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" s="2" customFormat="1">
       <c r="A24" s="10"/>
       <c r="B24" s="4">
         <v>36966</v>
@@ -821,7 +831,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" s="2" customFormat="1">
       <c r="A25" s="10"/>
       <c r="B25" s="4">
         <v>36987</v>
@@ -836,7 +846,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" s="2" customFormat="1">
       <c r="A26" s="10"/>
       <c r="B26" s="4">
         <v>37029</v>
@@ -851,7 +861,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="2" customFormat="1">
       <c r="A27" s="10"/>
       <c r="B27" s="4">
         <v>37064</v>
@@ -866,7 +876,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" s="2" customFormat="1">
       <c r="A28" s="10"/>
       <c r="B28" s="4">
         <v>37092</v>
@@ -881,7 +891,7 @@
       <c r="H28" s="5"/>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="2" customFormat="1">
       <c r="A29" s="10"/>
       <c r="B29" s="4">
         <v>37127</v>
@@ -896,7 +906,7 @@
       <c r="H29" s="5"/>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" s="2" customFormat="1">
       <c r="A30" s="10"/>
       <c r="B30" s="4">
         <v>37148</v>
@@ -911,7 +921,7 @@
       <c r="H30" s="5"/>
       <c r="I30" s="11"/>
     </row>
-    <row r="31" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" s="2" customFormat="1">
       <c r="A31" s="10"/>
       <c r="B31" s="4">
         <v>37176</v>
@@ -926,7 +936,7 @@
       <c r="H31" s="5"/>
       <c r="I31" s="11"/>
     </row>
-    <row r="32" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" s="2" customFormat="1">
       <c r="A32" s="10"/>
       <c r="B32" s="4">
         <v>37211</v>
@@ -941,7 +951,7 @@
       <c r="H32" s="5"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" s="2" customFormat="1">
       <c r="A33" s="10"/>
       <c r="B33" s="4">
         <v>37239</v>
@@ -956,7 +966,7 @@
       <c r="H33" s="5"/>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" s="2" customFormat="1">
       <c r="A34" s="10"/>
       <c r="B34" s="4">
         <v>37267</v>
@@ -971,7 +981,7 @@
       <c r="H34" s="5"/>
       <c r="I34" s="11"/>
     </row>
-    <row r="35" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" s="2" customFormat="1">
       <c r="A35" s="10"/>
       <c r="B35" s="4">
         <v>37274</v>
@@ -986,7 +996,7 @@
       <c r="H35" s="5"/>
       <c r="I35" s="11"/>
     </row>
-    <row r="36" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" s="2" customFormat="1">
       <c r="A36" s="10"/>
       <c r="B36" s="4">
         <v>37295</v>
@@ -1001,7 +1011,7 @@
       <c r="H36" s="5"/>
       <c r="I36" s="11"/>
     </row>
-    <row r="37" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" s="2" customFormat="1">
       <c r="A37" s="10"/>
       <c r="B37" s="4">
         <v>37309</v>
@@ -1016,7 +1026,7 @@
       <c r="H37" s="5"/>
       <c r="I37" s="11"/>
     </row>
-    <row r="38" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" s="2" customFormat="1">
       <c r="A38" s="10"/>
       <c r="B38" s="4">
         <v>37323</v>
@@ -1031,7 +1041,7 @@
       <c r="H38" s="5"/>
       <c r="I38" s="11"/>
     </row>
-    <row r="39" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" s="2" customFormat="1">
       <c r="A39" s="10"/>
       <c r="B39" s="4">
         <v>37337</v>
@@ -1046,7 +1056,7 @@
       <c r="H39" s="5"/>
       <c r="I39" s="11"/>
     </row>
-    <row r="40" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" s="2" customFormat="1">
       <c r="A40" s="10"/>
       <c r="B40" s="4">
         <v>37358</v>
@@ -1061,7 +1071,7 @@
       <c r="H40" s="5"/>
       <c r="I40" s="11"/>
     </row>
-    <row r="41" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" s="2" customFormat="1">
       <c r="A41" s="10"/>
       <c r="B41" s="4">
         <v>37372</v>
@@ -1076,7 +1086,7 @@
       <c r="H41" s="5"/>
       <c r="I41" s="11"/>
     </row>
-    <row r="42" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" s="2" customFormat="1">
       <c r="A42" s="10"/>
       <c r="B42" s="4">
         <v>37386</v>
@@ -1091,7 +1101,7 @@
       <c r="H42" s="5"/>
       <c r="I42" s="11"/>
     </row>
-    <row r="43" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" s="2" customFormat="1">
       <c r="A43" s="10"/>
       <c r="B43" s="4">
         <v>37407</v>
@@ -1106,7 +1116,7 @@
       <c r="H43" s="5"/>
       <c r="I43" s="11"/>
     </row>
-    <row r="44" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" s="2" customFormat="1">
       <c r="A44" s="10"/>
       <c r="B44" s="4">
         <v>37421</v>
@@ -1121,7 +1131,7 @@
       <c r="H44" s="5"/>
       <c r="I44" s="11"/>
     </row>
-    <row r="45" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" s="2" customFormat="1">
       <c r="A45" s="10"/>
       <c r="B45" s="4">
         <v>37435</v>
@@ -1136,7 +1146,7 @@
       <c r="H45" s="5"/>
       <c r="I45" s="11"/>
     </row>
-    <row r="46" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" s="2" customFormat="1">
       <c r="A46" s="10"/>
       <c r="B46" s="4">
         <v>37449</v>
@@ -1151,7 +1161,7 @@
       <c r="H46" s="5"/>
       <c r="I46" s="11"/>
     </row>
-    <row r="47" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" s="2" customFormat="1">
       <c r="A47" s="10"/>
       <c r="B47" s="4">
         <v>37463</v>
@@ -1166,7 +1176,7 @@
       <c r="H47" s="5"/>
       <c r="I47" s="11"/>
     </row>
-    <row r="48" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" s="2" customFormat="1">
       <c r="A48" s="10"/>
       <c r="B48" s="4">
         <v>37477</v>
@@ -1181,7 +1191,7 @@
       <c r="H48" s="5"/>
       <c r="I48" s="11"/>
     </row>
-    <row r="49" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" s="2" customFormat="1">
       <c r="A49" s="10"/>
       <c r="B49" s="4">
         <v>37484</v>
@@ -1196,7 +1206,7 @@
       <c r="H49" s="5"/>
       <c r="I49" s="11"/>
     </row>
-    <row r="50" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" s="2" customFormat="1">
       <c r="A50" s="10"/>
       <c r="B50" s="4">
         <v>37491</v>
@@ -1211,7 +1221,7 @@
       <c r="H50" s="5"/>
       <c r="I50" s="11"/>
     </row>
-    <row r="51" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" s="2" customFormat="1">
       <c r="A51" s="10"/>
       <c r="B51" s="4">
         <v>37498</v>
@@ -1226,7 +1236,7 @@
       <c r="H51" s="5"/>
       <c r="I51" s="11"/>
     </row>
-    <row r="52" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" s="2" customFormat="1">
       <c r="A52" s="10"/>
       <c r="B52" s="4">
         <v>37505</v>
@@ -1241,7 +1251,7 @@
       <c r="H52" s="5"/>
       <c r="I52" s="11"/>
     </row>
-    <row r="53" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" s="2" customFormat="1">
       <c r="A53" s="10"/>
       <c r="B53" s="4">
         <v>37512</v>
@@ -1256,7 +1266,7 @@
       <c r="H53" s="5"/>
       <c r="I53" s="11"/>
     </row>
-    <row r="54" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" s="2" customFormat="1">
       <c r="A54" s="10"/>
       <c r="B54" s="4">
         <v>37547</v>
@@ -1271,7 +1281,7 @@
       <c r="H54" s="5"/>
       <c r="I54" s="11"/>
     </row>
-    <row r="55" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" s="2" customFormat="1">
       <c r="A55" s="10"/>
       <c r="B55" s="4">
         <v>37575</v>
@@ -1286,7 +1296,7 @@
       <c r="H55" s="5"/>
       <c r="I55" s="11"/>
     </row>
-    <row r="56" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" s="2" customFormat="1">
       <c r="A56" s="10"/>
       <c r="B56" s="4">
         <v>37603</v>
@@ -1301,7 +1311,7 @@
       <c r="H56" s="5"/>
       <c r="I56" s="11"/>
     </row>
-    <row r="57" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" s="2" customFormat="1">
       <c r="A57" s="10"/>
       <c r="B57" s="4">
         <v>37645</v>
@@ -1316,7 +1326,7 @@
       <c r="H57" s="5"/>
       <c r="I57" s="11"/>
     </row>
-    <row r="58" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" s="2" customFormat="1">
       <c r="A58" s="10"/>
       <c r="B58" s="4">
         <v>37659</v>
@@ -1331,7 +1341,7 @@
       <c r="H58" s="5"/>
       <c r="I58" s="11"/>
     </row>
-    <row r="59" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" s="2" customFormat="1">
       <c r="A59" s="10"/>
       <c r="B59" s="4">
         <v>37673</v>
@@ -1346,7 +1356,7 @@
       <c r="H59" s="5"/>
       <c r="I59" s="11"/>
     </row>
-    <row r="60" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" s="2" customFormat="1">
       <c r="A60" s="10"/>
       <c r="B60" s="4">
         <v>37694</v>
@@ -1361,7 +1371,7 @@
       <c r="H60" s="5"/>
       <c r="I60" s="11"/>
     </row>
-    <row r="61" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" s="2" customFormat="1">
       <c r="A61" s="10"/>
       <c r="B61" s="4">
         <v>37708</v>
@@ -1376,7 +1386,7 @@
       <c r="H61" s="5"/>
       <c r="I61" s="11"/>
     </row>
-    <row r="62" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" s="2" customFormat="1">
       <c r="A62" s="10"/>
       <c r="B62" s="4">
         <v>37722</v>
@@ -1391,7 +1401,7 @@
       <c r="H62" s="5"/>
       <c r="I62" s="11"/>
     </row>
-    <row r="63" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" s="2" customFormat="1">
       <c r="A63" s="10"/>
       <c r="B63" s="4">
         <v>37743</v>
@@ -1406,7 +1416,7 @@
       <c r="H63" s="5"/>
       <c r="I63" s="11"/>
     </row>
-    <row r="64" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" s="2" customFormat="1">
       <c r="A64" s="10"/>
       <c r="B64" s="4">
         <v>37757</v>
@@ -1421,7 +1431,7 @@
       <c r="H64" s="5"/>
       <c r="I64" s="11"/>
     </row>
-    <row r="65" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" s="2" customFormat="1">
       <c r="A65" s="10"/>
       <c r="B65" s="4">
         <v>37778</v>
@@ -1436,7 +1446,7 @@
       <c r="H65" s="5"/>
       <c r="I65" s="11"/>
     </row>
-    <row r="66" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" s="2" customFormat="1">
       <c r="A66" s="10"/>
       <c r="B66" s="4">
         <v>37799</v>
@@ -1451,7 +1461,7 @@
       <c r="H66" s="5"/>
       <c r="I66" s="11"/>
     </row>
-    <row r="67" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" s="2" customFormat="1">
       <c r="A67" s="10"/>
       <c r="B67" s="4">
         <v>37820</v>
@@ -1466,7 +1476,7 @@
       <c r="H67" s="5"/>
       <c r="I67" s="11"/>
     </row>
-    <row r="68" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" s="2" customFormat="1">
       <c r="A68" s="10"/>
       <c r="B68" s="4">
         <v>37855</v>
@@ -1481,7 +1491,7 @@
       <c r="H68" s="5"/>
       <c r="I68" s="11"/>
     </row>
-    <row r="69" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" s="2" customFormat="1">
       <c r="A69" s="10"/>
       <c r="B69" s="4">
         <v>37876</v>
@@ -1496,7 +1506,7 @@
       <c r="H69" s="5"/>
       <c r="I69" s="11"/>
     </row>
-    <row r="70" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" s="2" customFormat="1">
       <c r="A70" s="10"/>
       <c r="B70" s="4">
         <v>37904</v>
@@ -1511,7 +1521,7 @@
       <c r="H70" s="5"/>
       <c r="I70" s="11"/>
     </row>
-    <row r="71" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" s="2" customFormat="1">
       <c r="A71" s="10"/>
       <c r="B71" s="4">
         <v>37918</v>
@@ -1526,7 +1536,7 @@
       <c r="H71" s="5"/>
       <c r="I71" s="11"/>
     </row>
-    <row r="72" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" s="2" customFormat="1">
       <c r="A72" s="10"/>
       <c r="B72" s="4">
         <v>37939</v>
@@ -1541,7 +1551,7 @@
       <c r="H72" s="5"/>
       <c r="I72" s="11"/>
     </row>
-    <row r="73" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" s="2" customFormat="1">
       <c r="A73" s="10"/>
       <c r="B73" s="4">
         <v>37953</v>
@@ -1556,7 +1566,7 @@
       <c r="H73" s="5"/>
       <c r="I73" s="11"/>
     </row>
-    <row r="74" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" s="2" customFormat="1">
       <c r="A74" s="10"/>
       <c r="B74" s="4">
         <v>37967</v>
@@ -1571,7 +1581,7 @@
       <c r="H74" s="5"/>
       <c r="I74" s="11"/>
     </row>
-    <row r="75" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" s="2" customFormat="1">
       <c r="A75" s="10"/>
       <c r="B75" s="4">
         <v>38002</v>
@@ -1586,7 +1596,7 @@
       <c r="H75" s="5"/>
       <c r="I75" s="11"/>
     </row>
-    <row r="76" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" s="2" customFormat="1">
       <c r="A76" s="10"/>
       <c r="B76" s="4">
         <v>38030</v>
@@ -1601,7 +1611,7 @@
       <c r="H76" s="5"/>
       <c r="I76" s="11"/>
     </row>
-    <row r="77" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" s="2" customFormat="1">
       <c r="A77" s="10"/>
       <c r="B77" s="4">
         <v>38051</v>
@@ -1616,7 +1626,7 @@
       <c r="H77" s="5"/>
       <c r="I77" s="11"/>
     </row>
-    <row r="78" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" s="2" customFormat="1">
       <c r="A78" s="10"/>
       <c r="B78" s="4">
         <v>38065</v>
@@ -1631,7 +1641,7 @@
       <c r="H78" s="5"/>
       <c r="I78" s="11"/>
     </row>
-    <row r="79" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" s="2" customFormat="1">
       <c r="A79" s="10"/>
       <c r="B79" s="4">
         <v>38079</v>
@@ -1646,7 +1656,7 @@
       <c r="H79" s="5"/>
       <c r="I79" s="11"/>
     </row>
-    <row r="80" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" s="2" customFormat="1">
       <c r="A80" s="10"/>
       <c r="B80" s="4">
         <v>38100</v>
@@ -1661,7 +1671,7 @@
       <c r="H80" s="5"/>
       <c r="I80" s="11"/>
     </row>
-    <row r="81" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" s="2" customFormat="1">
       <c r="A81" s="10"/>
       <c r="B81" s="4">
         <v>38121</v>
@@ -1676,7 +1686,7 @@
       <c r="H81" s="5"/>
       <c r="I81" s="11"/>
     </row>
-    <row r="82" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" s="2" customFormat="1">
       <c r="A82" s="10"/>
       <c r="B82" s="4">
         <v>38135</v>
@@ -1691,7 +1701,7 @@
       <c r="H82" s="5"/>
       <c r="I82" s="11"/>
     </row>
-    <row r="83" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" s="2" customFormat="1">
       <c r="A83" s="10"/>
       <c r="B83" s="4">
         <v>38163</v>
@@ -1706,7 +1716,7 @@
       <c r="H83" s="5"/>
       <c r="I83" s="11"/>
     </row>
-    <row r="84" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" s="2" customFormat="1">
       <c r="A84" s="10"/>
       <c r="B84" s="4">
         <v>38177</v>
@@ -1721,7 +1731,7 @@
       <c r="H84" s="5"/>
       <c r="I84" s="11"/>
     </row>
-    <row r="85" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" s="2" customFormat="1">
       <c r="A85" s="10"/>
       <c r="B85" s="4">
         <v>38191</v>
@@ -1736,7 +1746,7 @@
       <c r="H85" s="5"/>
       <c r="I85" s="11"/>
     </row>
-    <row r="86" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" s="2" customFormat="1">
       <c r="A86" s="10"/>
       <c r="B86" s="4">
         <v>38226</v>
@@ -1751,7 +1761,7 @@
       <c r="H86" s="5"/>
       <c r="I86" s="11"/>
     </row>
-    <row r="87" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" s="2" customFormat="1">
       <c r="A87" s="10"/>
       <c r="B87" s="4">
         <v>38254</v>
@@ -1766,7 +1776,7 @@
       <c r="H87" s="5"/>
       <c r="I87" s="11"/>
     </row>
-    <row r="88" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" s="2" customFormat="1">
       <c r="A88" s="10"/>
       <c r="B88" s="4">
         <v>38275</v>
@@ -1781,7 +1791,7 @@
       <c r="H88" s="5"/>
       <c r="I88" s="11"/>
     </row>
-    <row r="89" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" s="2" customFormat="1">
       <c r="A89" s="10"/>
       <c r="B89" s="4">
         <v>38289</v>
@@ -1796,7 +1806,7 @@
       <c r="H89" s="5"/>
       <c r="I89" s="11"/>
     </row>
-    <row r="90" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" s="2" customFormat="1">
       <c r="A90" s="10"/>
       <c r="B90" s="4">
         <v>38303</v>
@@ -1811,7 +1821,7 @@
       <c r="H90" s="5"/>
       <c r="I90" s="11"/>
     </row>
-    <row r="91" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" s="2" customFormat="1">
       <c r="A91" s="10"/>
       <c r="B91" s="4">
         <v>38317</v>
@@ -1826,7 +1836,7 @@
       <c r="H91" s="5"/>
       <c r="I91" s="11"/>
     </row>
-    <row r="92" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" s="2" customFormat="1">
       <c r="A92" s="10"/>
       <c r="B92" s="4">
         <v>38331</v>
@@ -1841,7 +1851,7 @@
       <c r="H92" s="5"/>
       <c r="I92" s="11"/>
     </row>
-    <row r="93" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" s="2" customFormat="1">
       <c r="A93" s="10"/>
       <c r="B93" s="4">
         <v>38366</v>
@@ -1856,7 +1866,7 @@
       <c r="H93" s="5"/>
       <c r="I93" s="11"/>
     </row>
-    <row r="94" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" s="2" customFormat="1">
       <c r="A94" s="10"/>
       <c r="B94" s="4">
         <v>38380</v>
@@ -1871,7 +1881,7 @@
       <c r="H94" s="5"/>
       <c r="I94" s="11"/>
     </row>
-    <row r="95" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" s="2" customFormat="1">
       <c r="A95" s="10"/>
       <c r="B95" s="4">
         <v>38408</v>
@@ -1886,7 +1896,7 @@
       <c r="H95" s="5"/>
       <c r="I95" s="11"/>
     </row>
-    <row r="96" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" s="2" customFormat="1">
       <c r="A96" s="10"/>
       <c r="B96" s="4">
         <v>38429</v>
@@ -1901,7 +1911,7 @@
       <c r="H96" s="5"/>
       <c r="I96" s="11"/>
     </row>
-    <row r="97" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" s="2" customFormat="1">
       <c r="A97" s="10"/>
       <c r="B97" s="4">
         <v>38457</v>
@@ -1916,7 +1926,7 @@
       <c r="H97" s="5"/>
       <c r="I97" s="11"/>
     </row>
-    <row r="98" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" s="2" customFormat="1">
       <c r="A98" s="10"/>
       <c r="B98" s="4">
         <v>38471</v>
@@ -1931,7 +1941,7 @@
       <c r="H98" s="5"/>
       <c r="I98" s="11"/>
     </row>
-    <row r="99" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" s="2" customFormat="1">
       <c r="A99" s="10"/>
       <c r="B99" s="4">
         <v>38499</v>
@@ -1946,7 +1956,7 @@
       <c r="H99" s="5"/>
       <c r="I99" s="11"/>
     </row>
-    <row r="100" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" s="2" customFormat="1">
       <c r="A100" s="10"/>
       <c r="B100" s="4">
         <v>38513</v>
@@ -1961,7 +1971,7 @@
       <c r="H100" s="5"/>
       <c r="I100" s="11"/>
     </row>
-    <row r="101" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" s="2" customFormat="1">
       <c r="A101" s="10"/>
       <c r="B101" s="4">
         <v>38527</v>
@@ -1976,7 +1986,7 @@
       <c r="H101" s="5"/>
       <c r="I101" s="11"/>
     </row>
-    <row r="102" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" s="2" customFormat="1">
       <c r="A102" s="10"/>
       <c r="B102" s="4">
         <v>38541</v>
@@ -1991,7 +2001,7 @@
       <c r="H102" s="5"/>
       <c r="I102" s="11"/>
     </row>
-    <row r="103" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" s="2" customFormat="1">
       <c r="A103" s="10"/>
       <c r="B103" s="4">
         <v>38555</v>
@@ -2006,7 +2016,7 @@
       <c r="H103" s="5"/>
       <c r="I103" s="11"/>
     </row>
-    <row r="104" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" s="2" customFormat="1">
       <c r="A104" s="10"/>
       <c r="B104" s="4">
         <v>38569</v>
@@ -2021,7 +2031,7 @@
       <c r="H104" s="5"/>
       <c r="I104" s="11"/>
     </row>
-    <row r="105" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" s="2" customFormat="1">
       <c r="A105" s="10"/>
       <c r="B105" s="4">
         <v>38576</v>
@@ -2036,7 +2046,7 @@
       <c r="H105" s="5"/>
       <c r="I105" s="11"/>
     </row>
-    <row r="106" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" s="2" customFormat="1">
       <c r="A106" s="10"/>
       <c r="B106" s="4">
         <v>38583</v>
@@ -2051,7 +2061,7 @@
       <c r="H106" s="5"/>
       <c r="I106" s="11"/>
     </row>
-    <row r="107" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" s="2" customFormat="1">
       <c r="A107" s="10"/>
       <c r="B107" s="4">
         <v>38590</v>
@@ -2066,7 +2076,7 @@
       <c r="H107" s="5"/>
       <c r="I107" s="11"/>
     </row>
-    <row r="108" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" s="2" customFormat="1">
       <c r="A108" s="10"/>
       <c r="B108" s="4">
         <v>38597</v>
@@ -2081,7 +2091,7 @@
       <c r="H108" s="5"/>
       <c r="I108" s="11"/>
     </row>
-    <row r="109" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" s="2" customFormat="1">
       <c r="A109" s="10"/>
       <c r="B109" s="4">
         <v>38604</v>
@@ -2096,7 +2106,7 @@
       <c r="H109" s="5"/>
       <c r="I109" s="11"/>
     </row>
-    <row r="110" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" s="2" customFormat="1">
       <c r="A110" s="10"/>
       <c r="B110" s="4">
         <v>38618</v>
@@ -2111,7 +2121,7 @@
       <c r="H110" s="5"/>
       <c r="I110" s="11"/>
     </row>
-    <row r="111" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" s="2" customFormat="1">
       <c r="A111" s="10"/>
       <c r="B111" s="4">
         <v>38632</v>
@@ -2126,7 +2136,7 @@
       <c r="H111" s="5"/>
       <c r="I111" s="11"/>
     </row>
-    <row r="112" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" s="2" customFormat="1">
       <c r="A112" s="10"/>
       <c r="B112" s="4">
         <v>38639</v>
@@ -2141,7 +2151,7 @@
       <c r="H112" s="5"/>
       <c r="I112" s="11"/>
     </row>
-    <row r="113" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" s="2" customFormat="1">
       <c r="A113" s="10"/>
       <c r="B113" s="4">
         <v>38653</v>
@@ -2156,7 +2166,7 @@
       <c r="H113" s="5"/>
       <c r="I113" s="11"/>
     </row>
-    <row r="114" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" s="2" customFormat="1">
       <c r="A114" s="10"/>
       <c r="B114" s="4">
         <v>38667</v>
@@ -2171,7 +2181,7 @@
       <c r="H114" s="5"/>
       <c r="I114" s="11"/>
     </row>
-    <row r="115" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" s="2" customFormat="1">
       <c r="A115" s="10"/>
       <c r="B115" s="4">
         <v>38681</v>
@@ -2186,7 +2196,7 @@
       <c r="H115" s="5"/>
       <c r="I115" s="11"/>
     </row>
-    <row r="116" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" s="2" customFormat="1">
       <c r="A116" s="10"/>
       <c r="B116" s="4">
         <v>38695</v>
@@ -2201,7 +2211,7 @@
       <c r="H116" s="5"/>
       <c r="I116" s="11"/>
     </row>
-    <row r="117" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" s="2" customFormat="1">
       <c r="A117" s="10"/>
       <c r="B117" s="4">
         <v>38730</v>
@@ -2216,7 +2226,7 @@
       <c r="H117" s="5"/>
       <c r="I117" s="11"/>
     </row>
-    <row r="118" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" s="2" customFormat="1">
       <c r="A118" s="10"/>
       <c r="B118" s="4">
         <v>38744</v>
@@ -2235,7 +2245,7 @@
       <c r="H118" s="5"/>
       <c r="I118" s="11"/>
     </row>
-    <row r="119" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" s="2" customFormat="1">
       <c r="A119" s="10"/>
       <c r="B119" s="4">
         <v>38765</v>
@@ -2254,7 +2264,7 @@
       <c r="H119" s="5"/>
       <c r="I119" s="11"/>
     </row>
-    <row r="120" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" s="2" customFormat="1">
       <c r="A120" s="10"/>
       <c r="B120" s="4">
         <v>38786</v>
@@ -2273,7 +2283,7 @@
       <c r="H120" s="5"/>
       <c r="I120" s="11"/>
     </row>
-    <row r="121" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" s="2" customFormat="1">
       <c r="A121" s="10"/>
       <c r="B121" s="4">
         <v>38814</v>
@@ -2292,7 +2302,7 @@
       <c r="H121" s="5"/>
       <c r="I121" s="11"/>
     </row>
-    <row r="122" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" s="2" customFormat="1">
       <c r="A122" s="10"/>
       <c r="B122" s="4">
         <v>38835</v>
@@ -2311,7 +2321,7 @@
       <c r="H122" s="5"/>
       <c r="I122" s="11"/>
     </row>
-    <row r="123" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" s="2" customFormat="1">
       <c r="A123" s="10"/>
       <c r="B123" s="4">
         <v>38856</v>
@@ -2328,7 +2338,7 @@
       <c r="H123" s="5"/>
       <c r="I123" s="11"/>
     </row>
-    <row r="124" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" s="2" customFormat="1">
       <c r="A124" s="10"/>
       <c r="B124" s="4">
         <v>38884</v>
@@ -2345,7 +2355,7 @@
       <c r="H124" s="5"/>
       <c r="I124" s="11"/>
     </row>
-    <row r="125" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" s="2" customFormat="1">
       <c r="A125" s="10"/>
       <c r="B125" s="4">
         <v>38912</v>
@@ -2360,7 +2370,7 @@
       <c r="H125" s="5"/>
       <c r="I125" s="11"/>
     </row>
-    <row r="126" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" s="2" customFormat="1">
       <c r="A126" s="10"/>
       <c r="B126" s="4">
         <v>38947</v>
@@ -2375,7 +2385,7 @@
       <c r="H126" s="5"/>
       <c r="I126" s="11"/>
     </row>
-    <row r="127" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" s="2" customFormat="1">
       <c r="A127" s="10"/>
       <c r="B127" s="4">
         <v>38961</v>
@@ -2392,7 +2402,7 @@
       <c r="H127" s="5"/>
       <c r="I127" s="11"/>
     </row>
-    <row r="128" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" s="2" customFormat="1">
       <c r="A128" s="10"/>
       <c r="B128" s="4">
         <v>38989</v>
@@ -2409,7 +2419,7 @@
       <c r="H128" s="5"/>
       <c r="I128" s="11"/>
     </row>
-    <row r="129" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" s="2" customFormat="1">
       <c r="A129" s="10"/>
       <c r="B129" s="4">
         <v>39003</v>
@@ -2426,7 +2436,7 @@
       <c r="H129" s="5"/>
       <c r="I129" s="11"/>
     </row>
-    <row r="130" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" s="2" customFormat="1">
       <c r="A130" s="10"/>
       <c r="B130" s="4">
         <v>39017</v>
@@ -2443,7 +2453,7 @@
       <c r="H130" s="5"/>
       <c r="I130" s="11"/>
     </row>
-    <row r="131" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" s="2" customFormat="1">
       <c r="A131" s="10"/>
       <c r="B131" s="4">
         <v>39031</v>
@@ -2458,7 +2468,7 @@
       <c r="H131" s="5"/>
       <c r="I131" s="11"/>
     </row>
-    <row r="132" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" s="2" customFormat="1">
       <c r="A132" s="10"/>
       <c r="B132" s="4">
         <v>39045</v>
@@ -2473,7 +2483,7 @@
       <c r="H132" s="5"/>
       <c r="I132" s="11"/>
     </row>
-    <row r="133" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" s="2" customFormat="1">
       <c r="A133" s="10"/>
       <c r="B133" s="4">
         <v>39066</v>
@@ -2488,7 +2498,7 @@
       <c r="H133" s="5"/>
       <c r="I133" s="11"/>
     </row>
-    <row r="134" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" s="2" customFormat="1">
       <c r="A134" s="10"/>
       <c r="B134" s="4">
         <v>39094</v>
@@ -2503,7 +2513,7 @@
       <c r="H134" s="5"/>
       <c r="I134" s="11"/>
     </row>
-    <row r="135" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" s="2" customFormat="1">
       <c r="A135" s="10"/>
       <c r="B135" s="4">
         <v>39122</v>
@@ -2518,7 +2528,7 @@
       <c r="H135" s="5"/>
       <c r="I135" s="11"/>
     </row>
-    <row r="136" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" s="2" customFormat="1">
       <c r="A136" s="10"/>
       <c r="B136" s="4">
         <v>39143</v>
@@ -2533,7 +2543,7 @@
       <c r="H136" s="5"/>
       <c r="I136" s="11"/>
     </row>
-    <row r="137" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" s="2" customFormat="1">
       <c r="A137" s="10"/>
       <c r="B137" s="4">
         <v>39157</v>
@@ -2548,7 +2558,7 @@
       <c r="H137" s="5"/>
       <c r="I137" s="11"/>
     </row>
-    <row r="138" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" s="2" customFormat="1">
       <c r="A138" s="10"/>
       <c r="B138" s="4">
         <v>39171</v>
@@ -2565,7 +2575,7 @@
       <c r="H138" s="5"/>
       <c r="I138" s="11"/>
     </row>
-    <row r="139" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" s="2" customFormat="1">
       <c r="A139" s="10"/>
       <c r="B139" s="4">
         <v>39192</v>
@@ -2582,7 +2592,7 @@
       <c r="H139" s="5"/>
       <c r="I139" s="11"/>
     </row>
-    <row r="140" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" s="2" customFormat="1">
       <c r="A140" s="10"/>
       <c r="B140" s="4">
         <v>39220</v>
@@ -2599,7 +2609,7 @@
       <c r="H140" s="5"/>
       <c r="I140" s="11"/>
     </row>
-    <row r="141" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" s="2" customFormat="1">
       <c r="A141" s="10"/>
       <c r="B141" s="4">
         <v>39234</v>
@@ -2616,7 +2626,7 @@
       <c r="H141" s="5"/>
       <c r="I141" s="11"/>
     </row>
-    <row r="142" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" s="2" customFormat="1">
       <c r="A142" s="10"/>
       <c r="B142" s="4">
         <v>39255</v>
@@ -2633,7 +2643,7 @@
       <c r="H142" s="5"/>
       <c r="I142" s="11"/>
     </row>
-    <row r="143" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" s="2" customFormat="1">
       <c r="A143" s="10"/>
       <c r="B143" s="4">
         <v>39283</v>
@@ -2650,7 +2660,7 @@
       <c r="H143" s="5"/>
       <c r="I143" s="11"/>
     </row>
-    <row r="144" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" s="2" customFormat="1">
       <c r="A144" s="10"/>
       <c r="B144" s="4">
         <v>39311</v>
@@ -2667,7 +2677,7 @@
       <c r="H144" s="5"/>
       <c r="I144" s="11"/>
     </row>
-    <row r="145" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" s="2" customFormat="1">
       <c r="A145" s="10"/>
       <c r="B145" s="4">
         <v>39339</v>
@@ -2684,7 +2694,7 @@
       <c r="H145" s="5"/>
       <c r="I145" s="11"/>
     </row>
-    <row r="146" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" s="2" customFormat="1">
       <c r="A146" s="10"/>
       <c r="B146" s="4">
         <v>39360</v>
@@ -2701,7 +2711,7 @@
       <c r="H146" s="5"/>
       <c r="I146" s="11"/>
     </row>
-    <row r="147" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" s="2" customFormat="1">
       <c r="A147" s="10"/>
       <c r="B147" s="4">
         <v>39374</v>
@@ -2718,7 +2728,7 @@
       <c r="H147" s="5"/>
       <c r="I147" s="11"/>
     </row>
-    <row r="148" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" s="2" customFormat="1">
       <c r="A148" s="10"/>
       <c r="B148" s="4">
         <v>39395</v>
@@ -2735,7 +2745,7 @@
       <c r="H148" s="5"/>
       <c r="I148" s="11"/>
     </row>
-    <row r="149" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" s="2" customFormat="1">
       <c r="A149" s="10"/>
       <c r="B149" s="4">
         <v>39409</v>
@@ -2752,7 +2762,7 @@
       <c r="H149" s="5"/>
       <c r="I149" s="11"/>
     </row>
-    <row r="150" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" s="2" customFormat="1">
       <c r="A150" s="10"/>
       <c r="B150" s="4">
         <v>39430</v>
@@ -2769,7 +2779,7 @@
       <c r="H150" s="5"/>
       <c r="I150" s="11"/>
     </row>
-    <row r="151" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" s="2" customFormat="1">
       <c r="A151" s="10"/>
       <c r="B151" s="4">
         <v>39458</v>
@@ -2786,7 +2796,7 @@
       <c r="H151" s="5"/>
       <c r="I151" s="11"/>
     </row>
-    <row r="152" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" s="2" customFormat="1">
       <c r="A152" s="10"/>
       <c r="B152" s="4">
         <v>39486</v>
@@ -2803,7 +2813,7 @@
       <c r="H152" s="5"/>
       <c r="I152" s="11"/>
     </row>
-    <row r="153" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" s="2" customFormat="1">
       <c r="A153" s="10"/>
       <c r="B153" s="4">
         <v>39507</v>
@@ -2820,7 +2830,7 @@
       <c r="H153" s="5"/>
       <c r="I153" s="11"/>
     </row>
-    <row r="154" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" s="2" customFormat="1">
       <c r="A154" s="10"/>
       <c r="B154" s="4">
         <v>39521</v>
@@ -2837,7 +2847,7 @@
       <c r="H154" s="5"/>
       <c r="I154" s="11"/>
     </row>
-    <row r="155" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" s="2" customFormat="1">
       <c r="A155" s="10"/>
       <c r="B155" s="4">
         <v>39542</v>
@@ -2854,7 +2864,7 @@
       <c r="H155" s="5"/>
       <c r="I155" s="11"/>
     </row>
-    <row r="156" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" s="2" customFormat="1">
       <c r="A156" s="10"/>
       <c r="B156" s="4">
         <v>39556</v>
@@ -2871,7 +2881,7 @@
       <c r="H156" s="5"/>
       <c r="I156" s="11"/>
     </row>
-    <row r="157" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" s="2" customFormat="1">
       <c r="A157" s="10"/>
       <c r="B157" s="4">
         <v>39577</v>
@@ -2888,7 +2898,7 @@
       <c r="H157" s="5"/>
       <c r="I157" s="11"/>
     </row>
-    <row r="158" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" s="2" customFormat="1">
       <c r="A158" s="10"/>
       <c r="B158" s="4">
         <v>39598</v>
@@ -2905,7 +2915,7 @@
       <c r="H158" s="5"/>
       <c r="I158" s="11"/>
     </row>
-    <row r="159" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" s="2" customFormat="1">
       <c r="A159" s="10"/>
       <c r="B159" s="4">
         <v>39612</v>
@@ -2922,7 +2932,7 @@
       <c r="H159" s="5"/>
       <c r="I159" s="11"/>
     </row>
-    <row r="160" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" s="2" customFormat="1">
       <c r="A160" s="10"/>
       <c r="B160" s="4">
         <v>39640</v>
@@ -2939,7 +2949,7 @@
       <c r="H160" s="5"/>
       <c r="I160" s="11"/>
     </row>
-    <row r="161" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" s="2" customFormat="1">
       <c r="A161" s="10"/>
       <c r="B161" s="4">
         <v>39675</v>
@@ -2956,7 +2966,7 @@
       <c r="H161" s="5"/>
       <c r="I161" s="11"/>
     </row>
-    <row r="162" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" s="2" customFormat="1">
       <c r="A162" s="10"/>
       <c r="B162" s="4">
         <v>39703</v>
@@ -2973,7 +2983,7 @@
       <c r="H162" s="5"/>
       <c r="I162" s="11"/>
     </row>
-    <row r="163" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" s="2" customFormat="1">
       <c r="A163" s="10"/>
       <c r="B163" s="4">
         <v>39731</v>
@@ -2988,7 +2998,7 @@
       <c r="H163" s="5"/>
       <c r="I163" s="11"/>
     </row>
-    <row r="164" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" s="2" customFormat="1">
       <c r="A164" s="10"/>
       <c r="B164" s="4">
         <v>39745</v>
@@ -3003,7 +3013,7 @@
       <c r="H164" s="5"/>
       <c r="I164" s="11"/>
     </row>
-    <row r="165" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" s="2" customFormat="1">
       <c r="A165" s="10"/>
       <c r="B165" s="4">
         <v>39759</v>
@@ -3020,7 +3030,7 @@
       <c r="H165" s="5"/>
       <c r="I165" s="11"/>
     </row>
-    <row r="166" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" s="2" customFormat="1">
       <c r="A166" s="10"/>
       <c r="B166" s="4">
         <v>39773</v>
@@ -3037,7 +3047,7 @@
       <c r="H166" s="5"/>
       <c r="I166" s="11"/>
     </row>
-    <row r="167" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" s="2" customFormat="1">
       <c r="A167" s="10"/>
       <c r="B167" s="4">
         <v>39794</v>
@@ -3054,7 +3064,7 @@
       <c r="H167" s="5"/>
       <c r="I167" s="11"/>
     </row>
-    <row r="168" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" s="2" customFormat="1">
       <c r="A168" s="10"/>
       <c r="B168" s="4">
         <v>39822</v>
@@ -3071,7 +3081,7 @@
       <c r="H168" s="5"/>
       <c r="I168" s="11"/>
     </row>
-    <row r="169" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" s="2" customFormat="1">
       <c r="A169" s="10"/>
       <c r="B169" s="4">
         <v>39843</v>
@@ -3088,7 +3098,7 @@
       <c r="H169" s="5"/>
       <c r="I169" s="11"/>
     </row>
-    <row r="170" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" s="2" customFormat="1">
       <c r="A170" s="10"/>
       <c r="B170" s="4">
         <v>39857</v>
@@ -3105,7 +3115,7 @@
       <c r="H170" s="5"/>
       <c r="I170" s="11"/>
     </row>
-    <row r="171" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" s="2" customFormat="1">
       <c r="A171" s="10"/>
       <c r="B171" s="4">
         <v>39878</v>
@@ -3122,7 +3132,7 @@
       <c r="H171" s="5"/>
       <c r="I171" s="11"/>
     </row>
-    <row r="172" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" s="2" customFormat="1">
       <c r="A172" s="10"/>
       <c r="B172" s="4">
         <v>39899</v>
@@ -3139,7 +3149,7 @@
       <c r="H172" s="5"/>
       <c r="I172" s="11"/>
     </row>
-    <row r="173" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" s="2" customFormat="1">
       <c r="A173" s="10"/>
       <c r="B173" s="4">
         <v>39927</v>
@@ -3156,7 +3166,7 @@
       <c r="H173" s="5"/>
       <c r="I173" s="11"/>
     </row>
-    <row r="174" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" s="2" customFormat="1">
       <c r="A174" s="10"/>
       <c r="B174" s="4">
         <v>39941</v>
@@ -3173,7 +3183,7 @@
       <c r="H174" s="5"/>
       <c r="I174" s="11"/>
     </row>
-    <row r="175" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" s="2" customFormat="1">
       <c r="A175" s="10"/>
       <c r="B175" s="4">
         <v>39962</v>
@@ -3192,7 +3202,7 @@
       <c r="H175" s="5"/>
       <c r="I175" s="11"/>
     </row>
-    <row r="176" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" s="2" customFormat="1">
       <c r="A176" s="10"/>
       <c r="B176" s="4">
         <v>39976</v>
@@ -3211,7 +3221,7 @@
       <c r="H176" s="5"/>
       <c r="I176" s="11"/>
     </row>
-    <row r="177" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" s="2" customFormat="1">
       <c r="A177" s="10"/>
       <c r="B177" s="4">
         <v>39997</v>
@@ -3230,7 +3240,7 @@
       <c r="H177" s="5"/>
       <c r="I177" s="11"/>
     </row>
-    <row r="178" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" s="2" customFormat="1">
       <c r="A178" s="10"/>
       <c r="B178" s="4">
         <v>40018</v>
@@ -3247,7 +3257,7 @@
       <c r="H178" s="5"/>
       <c r="I178" s="11"/>
     </row>
-    <row r="179" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" s="2" customFormat="1">
       <c r="A179" s="10"/>
       <c r="B179" s="4">
         <v>40032</v>
@@ -3264,7 +3274,7 @@
       <c r="H179" s="5"/>
       <c r="I179" s="11"/>
     </row>
-    <row r="180" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" s="2" customFormat="1">
       <c r="A180" s="10"/>
       <c r="B180" s="4">
         <v>40046</v>
@@ -3281,7 +3291,7 @@
       <c r="H180" s="5"/>
       <c r="I180" s="11"/>
     </row>
-    <row r="181" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" s="2" customFormat="1">
       <c r="A181" s="10"/>
       <c r="B181" s="4">
         <v>40053</v>
@@ -3298,7 +3308,7 @@
       <c r="H181" s="5"/>
       <c r="I181" s="11"/>
     </row>
-    <row r="182" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" s="2" customFormat="1">
       <c r="A182" s="10"/>
       <c r="B182" s="4">
         <v>40060</v>
@@ -3315,7 +3325,7 @@
       <c r="H182" s="5"/>
       <c r="I182" s="11"/>
     </row>
-    <row r="183" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" s="2" customFormat="1">
       <c r="A183" s="10"/>
       <c r="B183" s="4">
         <v>40067</v>
@@ -3332,7 +3342,7 @@
       <c r="H183" s="5"/>
       <c r="I183" s="11"/>
     </row>
-    <row r="184" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" s="2" customFormat="1">
       <c r="A184" s="10"/>
       <c r="B184" s="4">
         <v>40074</v>
@@ -3349,7 +3359,7 @@
       <c r="H184" s="5"/>
       <c r="I184" s="11"/>
     </row>
-    <row r="185" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" s="2" customFormat="1">
       <c r="A185" s="10"/>
       <c r="B185" s="4">
         <v>40088</v>
@@ -3368,7 +3378,7 @@
       <c r="H185" s="5"/>
       <c r="I185" s="11"/>
     </row>
-    <row r="186" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" s="2" customFormat="1">
       <c r="A186" s="10"/>
       <c r="B186" s="4">
         <v>40102</v>
@@ -3387,7 +3397,7 @@
       <c r="H186" s="5"/>
       <c r="I186" s="11"/>
     </row>
-    <row r="187" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" s="2" customFormat="1">
       <c r="A187" s="10"/>
       <c r="B187" s="4">
         <v>40116</v>
@@ -3406,7 +3416,7 @@
       <c r="H187" s="5"/>
       <c r="I187" s="11"/>
     </row>
-    <row r="188" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" s="2" customFormat="1">
       <c r="A188" s="10"/>
       <c r="B188" s="4">
         <v>40144</v>
@@ -3425,7 +3435,7 @@
       <c r="H188" s="5"/>
       <c r="I188" s="11"/>
     </row>
-    <row r="189" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" s="2" customFormat="1">
       <c r="A189" s="10"/>
       <c r="B189" s="4">
         <v>40158</v>
@@ -3444,7 +3454,7 @@
       <c r="H189" s="5"/>
       <c r="I189" s="11"/>
     </row>
-    <row r="190" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" s="2" customFormat="1">
       <c r="A190" s="10"/>
       <c r="B190" s="4">
         <v>40193</v>
@@ -3463,7 +3473,7 @@
       <c r="H190" s="5"/>
       <c r="I190" s="11"/>
     </row>
-    <row r="191" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" s="2" customFormat="1">
       <c r="A191" s="10"/>
       <c r="B191" s="4">
         <v>40207</v>
@@ -3484,7 +3494,7 @@
       <c r="H191" s="5"/>
       <c r="I191" s="11"/>
     </row>
-    <row r="192" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" s="2" customFormat="1">
       <c r="A192" s="10"/>
       <c r="B192" s="4">
         <v>40235</v>
@@ -3505,7 +3515,7 @@
       <c r="H192" s="5"/>
       <c r="I192" s="11"/>
     </row>
-    <row r="193" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" s="2" customFormat="1">
       <c r="A193" s="10"/>
       <c r="B193" s="4">
         <v>40249</v>
@@ -3526,7 +3536,7 @@
       <c r="H193" s="5"/>
       <c r="I193" s="11"/>
     </row>
-    <row r="194" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" s="2" customFormat="1">
       <c r="A194" s="10"/>
       <c r="B194" s="4">
         <v>40263</v>
@@ -3547,7 +3557,7 @@
       <c r="H194" s="5"/>
       <c r="I194" s="11"/>
     </row>
-    <row r="195" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" s="2" customFormat="1">
       <c r="A195" s="10"/>
       <c r="B195" s="4">
         <v>40291</v>
@@ -3568,7 +3578,7 @@
       <c r="H195" s="5"/>
       <c r="I195" s="11"/>
     </row>
-    <row r="196" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" s="2" customFormat="1">
       <c r="A196" s="10"/>
       <c r="B196" s="4">
         <v>40319</v>
@@ -3589,7 +3599,7 @@
       <c r="H196" s="5"/>
       <c r="I196" s="11"/>
     </row>
-    <row r="197" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" s="2" customFormat="1">
       <c r="A197" s="10"/>
       <c r="B197" s="4">
         <v>40333</v>
@@ -3610,7 +3620,7 @@
       <c r="H197" s="5"/>
       <c r="I197" s="11"/>
     </row>
-    <row r="198" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" s="2" customFormat="1">
       <c r="A198" s="10"/>
       <c r="B198" s="4">
         <v>40347</v>
@@ -3631,7 +3641,7 @@
       <c r="H198" s="5"/>
       <c r="I198" s="11"/>
     </row>
-    <row r="199" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" s="2" customFormat="1">
       <c r="A199" s="10"/>
       <c r="B199" s="4">
         <v>40375</v>
@@ -3652,7 +3662,7 @@
       <c r="H199" s="5"/>
       <c r="I199" s="11"/>
     </row>
-    <row r="200" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" s="2" customFormat="1">
       <c r="A200" s="10"/>
       <c r="B200" s="4">
         <v>40417</v>
@@ -3673,7 +3683,7 @@
       <c r="H200" s="5"/>
       <c r="I200" s="11"/>
     </row>
-    <row r="201" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" s="2" customFormat="1">
       <c r="A201" s="10"/>
       <c r="B201" s="4">
         <v>40431</v>
@@ -3694,7 +3704,7 @@
       <c r="H201" s="5"/>
       <c r="I201" s="11"/>
     </row>
-    <row r="202" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" s="2" customFormat="1">
       <c r="A202" s="10"/>
       <c r="B202" s="4">
         <v>40445</v>
@@ -3715,7 +3725,7 @@
       <c r="H202" s="5"/>
       <c r="I202" s="11"/>
     </row>
-    <row r="203" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" s="2" customFormat="1">
       <c r="A203" s="10"/>
       <c r="B203" s="4">
         <v>40473</v>
@@ -3736,7 +3746,7 @@
       <c r="H203" s="5"/>
       <c r="I203" s="11"/>
     </row>
-    <row r="204" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" s="2" customFormat="1">
       <c r="A204" s="10"/>
       <c r="B204" s="4">
         <v>40494</v>
@@ -3757,7 +3767,7 @@
       <c r="H204" s="5"/>
       <c r="I204" s="11"/>
     </row>
-    <row r="205" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" s="2" customFormat="1">
       <c r="A205" s="10"/>
       <c r="B205" s="4">
         <v>40515</v>
@@ -3778,7 +3788,7 @@
       <c r="H205" s="5"/>
       <c r="I205" s="11"/>
     </row>
-    <row r="206" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" s="2" customFormat="1">
       <c r="A206" s="10"/>
       <c r="B206" s="4">
         <v>40529</v>
@@ -3799,7 +3809,7 @@
       <c r="H206" s="5"/>
       <c r="I206" s="11"/>
     </row>
-    <row r="207" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" s="2" customFormat="1">
       <c r="A207" s="10"/>
       <c r="B207" s="4">
         <v>40557</v>
@@ -3820,7 +3830,7 @@
       <c r="H207" s="5"/>
       <c r="I207" s="11"/>
     </row>
-    <row r="208" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" s="2" customFormat="1">
       <c r="A208" s="10"/>
       <c r="B208" s="4">
         <v>40571</v>
@@ -3841,7 +3851,7 @@
       <c r="H208" s="5"/>
       <c r="I208" s="11"/>
     </row>
-    <row r="209" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" s="2" customFormat="1">
       <c r="A209" s="10"/>
       <c r="B209" s="4">
         <v>40585</v>
@@ -3862,7 +3872,7 @@
       <c r="H209" s="5"/>
       <c r="I209" s="11"/>
     </row>
-    <row r="210" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" s="2" customFormat="1">
       <c r="A210" s="10"/>
       <c r="B210" s="4">
         <v>40599</v>
@@ -3883,7 +3893,7 @@
       <c r="H210" s="5"/>
       <c r="I210" s="11"/>
     </row>
-    <row r="211" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" s="2" customFormat="1">
       <c r="A211" s="10"/>
       <c r="B211" s="4">
         <v>40634</v>
@@ -3904,7 +3914,7 @@
       <c r="H211" s="5"/>
       <c r="I211" s="11"/>
     </row>
-    <row r="212" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" s="2" customFormat="1">
       <c r="A212" s="10"/>
       <c r="B212" s="4">
         <v>40648</v>
@@ -3925,7 +3935,7 @@
       <c r="H212" s="5"/>
       <c r="I212" s="13"/>
     </row>
-    <row r="213" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" s="2" customFormat="1">
       <c r="A213" s="10"/>
       <c r="B213" s="4">
         <v>40669</v>
@@ -3944,7 +3954,7 @@
       <c r="H213" s="5"/>
       <c r="I213" s="13"/>
     </row>
-    <row r="214" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" s="2" customFormat="1">
       <c r="A214" s="10"/>
       <c r="B214" s="4">
         <v>40690</v>
@@ -3963,7 +3973,7 @@
       <c r="H214" s="5"/>
       <c r="I214" s="13"/>
     </row>
-    <row r="215" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" s="2" customFormat="1">
       <c r="A215" s="10"/>
       <c r="B215" s="4">
         <v>40704</v>
@@ -3984,7 +3994,7 @@
       <c r="H215" s="5"/>
       <c r="I215" s="11"/>
     </row>
-    <row r="216" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" s="2" customFormat="1">
       <c r="A216" s="10"/>
       <c r="B216" s="4">
         <v>40739</v>
@@ -4005,7 +4015,7 @@
       <c r="H216" s="5"/>
       <c r="I216" s="11"/>
     </row>
-    <row r="217" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" s="2" customFormat="1">
       <c r="A217" s="10"/>
       <c r="B217" s="4">
         <v>40767</v>
@@ -4024,7 +4034,7 @@
       <c r="H217" s="5"/>
       <c r="I217" s="11"/>
     </row>
-    <row r="218" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" s="2" customFormat="1">
       <c r="A218" s="10"/>
       <c r="B218" s="4">
         <v>40795</v>
@@ -4043,7 +4053,7 @@
       <c r="H218" s="5"/>
       <c r="I218" s="11"/>
     </row>
-    <row r="219" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" s="2" customFormat="1">
       <c r="A219" s="10"/>
       <c r="B219" s="4">
         <v>40809</v>
@@ -4064,7 +4074,7 @@
       <c r="H219" s="5"/>
       <c r="I219" s="11"/>
     </row>
-    <row r="220" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" s="2" customFormat="1">
       <c r="A220" s="10"/>
       <c r="B220" s="4">
         <v>40830</v>
@@ -4085,7 +4095,7 @@
       <c r="H220" s="5"/>
       <c r="I220" s="11"/>
     </row>
-    <row r="221" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" s="2" customFormat="1">
       <c r="A221" s="10"/>
       <c r="B221" s="4">
         <v>40844</v>
@@ -4106,7 +4116,7 @@
       <c r="H221" s="5"/>
       <c r="I221" s="11"/>
     </row>
-    <row r="222" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" s="2" customFormat="1">
       <c r="A222" s="10"/>
       <c r="B222" s="4">
         <v>40858</v>
@@ -4127,7 +4137,7 @@
       <c r="H222" s="5"/>
       <c r="I222" s="11"/>
     </row>
-    <row r="223" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" s="2" customFormat="1">
       <c r="A223" s="10"/>
       <c r="B223" s="4">
         <v>40872</v>
@@ -4148,7 +4158,7 @@
       <c r="H223" s="5"/>
       <c r="I223" s="16"/>
     </row>
-    <row r="224" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" s="2" customFormat="1">
       <c r="A224" s="10"/>
       <c r="B224" s="4">
         <v>40893</v>
@@ -4169,7 +4179,7 @@
       <c r="H224" s="5"/>
       <c r="I224" s="16"/>
     </row>
-    <row r="225" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" s="2" customFormat="1">
       <c r="A225" s="10"/>
       <c r="B225" s="4">
         <v>40921</v>
@@ -4190,7 +4200,7 @@
       <c r="H225" s="5"/>
       <c r="I225" s="16"/>
     </row>
-    <row r="226" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" s="2" customFormat="1">
       <c r="A226" s="10"/>
       <c r="B226" s="4">
         <v>40935</v>
@@ -4211,7 +4221,7 @@
       <c r="H226" s="5"/>
       <c r="I226" s="11"/>
     </row>
-    <row r="227" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" s="2" customFormat="1">
       <c r="A227" s="10"/>
       <c r="B227" s="4">
         <v>40949</v>
@@ -4232,7 +4242,7 @@
       <c r="H227" s="5"/>
       <c r="I227" s="11"/>
     </row>
-    <row r="228" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" s="2" customFormat="1">
       <c r="A228" s="10"/>
       <c r="B228" s="4">
         <v>40977</v>
@@ -4253,7 +4263,7 @@
       <c r="H228" s="5"/>
       <c r="I228" s="11"/>
     </row>
-    <row r="229" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" s="2" customFormat="1">
       <c r="A229" s="10"/>
       <c r="B229" s="4">
         <v>40998</v>
@@ -4274,7 +4284,7 @@
       <c r="H229" s="5"/>
       <c r="I229" s="11"/>
     </row>
-    <row r="230" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" s="2" customFormat="1">
       <c r="A230" s="10"/>
       <c r="B230" s="4">
         <v>41026</v>
@@ -4295,7 +4305,7 @@
       <c r="H230" s="5"/>
       <c r="I230" s="11"/>
     </row>
-    <row r="231" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" s="2" customFormat="1">
       <c r="A231" s="10"/>
       <c r="B231" s="4">
         <v>41054</v>
@@ -4316,7 +4326,7 @@
       <c r="H231" s="5"/>
       <c r="I231" s="11"/>
     </row>
-    <row r="232" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" s="2" customFormat="1">
       <c r="A232" s="10"/>
       <c r="B232" s="4">
         <v>41075</v>
@@ -4337,7 +4347,7 @@
       <c r="H232" s="5"/>
       <c r="I232" s="11"/>
     </row>
-    <row r="233" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" s="2" customFormat="1">
       <c r="A233" s="10"/>
       <c r="B233" s="4">
         <v>41103</v>
@@ -4358,7 +4368,7 @@
       <c r="H233" s="5"/>
       <c r="I233" s="11"/>
     </row>
-    <row r="234" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" s="2" customFormat="1">
       <c r="A234" s="10"/>
       <c r="B234" s="4">
         <v>41145</v>
@@ -4379,7 +4389,7 @@
       <c r="H234" s="5"/>
       <c r="I234" s="11"/>
     </row>
-    <row r="235" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" s="2" customFormat="1">
       <c r="A235" s="10"/>
       <c r="B235" s="4">
         <v>41166</v>
@@ -4400,7 +4410,7 @@
       <c r="H235" s="5"/>
       <c r="I235" s="11"/>
     </row>
-    <row r="236" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" s="7" customFormat="1">
       <c r="B236" s="4">
         <v>41180</v>
       </c>
@@ -4421,7 +4431,7 @@
       <c r="I236" s="16"/>
       <c r="J236" s="6"/>
     </row>
-    <row r="237" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" s="5" customFormat="1">
       <c r="B237" s="4">
         <v>41193</v>
       </c>
@@ -4441,7 +4451,7 @@
       <c r="J237" s="8"/>
       <c r="K237" s="8"/>
     </row>
-    <row r="238" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" s="7" customFormat="1">
       <c r="B238" s="4">
         <v>41208</v>
       </c>
@@ -4461,7 +4471,7 @@
       <c r="H238" s="5"/>
       <c r="I238" s="16"/>
     </row>
-    <row r="239" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" s="2" customFormat="1">
       <c r="A239" s="10"/>
       <c r="B239" s="4">
         <v>41229</v>
@@ -4483,7 +4493,7 @@
       <c r="I239" s="16"/>
       <c r="J239" s="5"/>
     </row>
-    <row r="240" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" s="2" customFormat="1">
       <c r="A240" s="10"/>
       <c r="B240" s="4">
         <v>41243</v>
@@ -4505,7 +4515,7 @@
       <c r="I240" s="16"/>
       <c r="J240" s="5"/>
     </row>
-    <row r="241" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" s="2" customFormat="1">
       <c r="A241" s="10"/>
       <c r="B241" s="4">
         <v>41257</v>
@@ -4527,7 +4537,7 @@
       <c r="I241" s="16"/>
       <c r="J241" s="5"/>
     </row>
-    <row r="242" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" s="2" customFormat="1">
       <c r="A242" s="10"/>
       <c r="B242" s="4">
         <v>41285</v>
@@ -4549,7 +4559,7 @@
       <c r="I242" s="16"/>
       <c r="J242" s="5"/>
     </row>
-    <row r="243" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" s="2" customFormat="1">
       <c r="A243" s="10"/>
       <c r="B243" s="4">
         <v>41299</v>
@@ -4571,7 +4581,7 @@
       <c r="I243" s="16"/>
       <c r="J243" s="5"/>
     </row>
-    <row r="244" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" s="2" customFormat="1">
       <c r="A244" s="10"/>
       <c r="B244" s="4">
         <v>41327</v>
@@ -4593,7 +4603,7 @@
       <c r="I244" s="16"/>
       <c r="J244" s="5"/>
     </row>
-    <row r="245" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" s="2" customFormat="1">
       <c r="A245" s="10"/>
       <c r="B245" s="4">
         <v>41341</v>
@@ -4615,7 +4625,7 @@
       <c r="I245" s="16"/>
       <c r="J245" s="5"/>
     </row>
-    <row r="246" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" s="2" customFormat="1">
       <c r="A246" s="10"/>
       <c r="B246" s="4">
         <v>41355</v>
@@ -4637,7 +4647,7 @@
       <c r="I246" s="11"/>
       <c r="J246" s="5"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11">
       <c r="B247" s="4">
         <v>41376</v>
       </c>
@@ -4658,7 +4668,7 @@
       <c r="I247" s="11"/>
       <c r="J247" s="5"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11">
       <c r="B248" s="4">
         <v>41390</v>
       </c>
@@ -4679,7 +4689,7 @@
       <c r="I248" s="11"/>
       <c r="J248" s="5"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11">
       <c r="B249" s="4">
         <v>41411</v>
       </c>
@@ -4700,7 +4710,7 @@
       <c r="I249" s="11"/>
       <c r="J249" s="5"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11">
       <c r="B250" s="4">
         <v>41432</v>
       </c>
@@ -4722,7 +4732,7 @@
       <c r="J250" s="5"/>
       <c r="K250" s="5"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11">
       <c r="B251" s="4">
         <v>41453</v>
       </c>
@@ -4744,7 +4754,7 @@
       <c r="J251" s="5"/>
       <c r="K251" s="5"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11">
       <c r="B252" s="4">
         <v>41467</v>
       </c>
@@ -4766,7 +4776,7 @@
       <c r="J252" s="5"/>
       <c r="K252" s="5"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11">
       <c r="B253" s="4">
         <v>41488</v>
       </c>
@@ -4786,7 +4796,7 @@
       <c r="J253" s="5"/>
       <c r="K253" s="5"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11">
       <c r="B254" s="4">
         <v>41502</v>
       </c>
@@ -4806,7 +4816,7 @@
       <c r="J254" s="5"/>
       <c r="K254" s="5"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11">
       <c r="B255" s="4">
         <v>41509</v>
       </c>
@@ -4826,7 +4836,7 @@
       <c r="J255" s="5"/>
       <c r="K255" s="5"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11">
       <c r="B256" s="4">
         <v>41515</v>
       </c>
@@ -4846,7 +4856,7 @@
       <c r="J256" s="5"/>
       <c r="K256" s="5"/>
     </row>
-    <row r="257" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:11">
       <c r="B257" s="4">
         <v>41522</v>
       </c>
@@ -4866,7 +4876,7 @@
       <c r="J257" s="5"/>
       <c r="K257" s="5"/>
     </row>
-    <row r="258" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:11" s="14" customFormat="1">
       <c r="B258" s="4">
         <v>41530</v>
       </c>
@@ -4886,7 +4896,7 @@
       <c r="H258" s="5"/>
       <c r="I258" s="5"/>
     </row>
-    <row r="259" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:11">
       <c r="B259" s="4">
         <v>41544</v>
       </c>
@@ -4908,7 +4918,7 @@
       <c r="J259" s="5"/>
       <c r="K259" s="5"/>
     </row>
-    <row r="260" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:11">
       <c r="B260" s="4">
         <v>41565</v>
       </c>
@@ -4930,7 +4940,7 @@
       <c r="J260" s="5"/>
       <c r="K260" s="5"/>
     </row>
-    <row r="261" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:11">
       <c r="B261" s="4">
         <v>41586</v>
       </c>
@@ -4952,7 +4962,7 @@
       <c r="J261" s="5"/>
       <c r="K261" s="5"/>
     </row>
-    <row r="262" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:11">
       <c r="B262" s="4">
         <v>41607</v>
       </c>
@@ -4974,7 +4984,7 @@
       <c r="J262" s="5"/>
       <c r="K262" s="5"/>
     </row>
-    <row r="263" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:11">
       <c r="B263" s="4">
         <v>41621</v>
       </c>
@@ -4996,7 +5006,7 @@
       <c r="J263" s="5"/>
       <c r="K263" s="5"/>
     </row>
-    <row r="264" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:11">
       <c r="B264" s="4">
         <v>41656</v>
       </c>
@@ -5017,7 +5027,7 @@
       <c r="I264" s="16"/>
       <c r="J264"/>
     </row>
-    <row r="265" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:11">
       <c r="B265" s="4">
         <v>41670</v>
       </c>
@@ -5038,7 +5048,7 @@
       <c r="I265" s="16"/>
       <c r="J265"/>
     </row>
-    <row r="266" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:11">
       <c r="B266" s="4">
         <v>41691</v>
       </c>
@@ -5058,7 +5068,7 @@
       <c r="H266" s="5"/>
       <c r="I266" s="16"/>
     </row>
-    <row r="267" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:11">
       <c r="B267" s="4">
         <v>41712</v>
       </c>
@@ -5078,7 +5088,7 @@
       <c r="H267" s="5"/>
       <c r="I267" s="16"/>
     </row>
-    <row r="268" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:11">
       <c r="B268" s="4">
         <v>41726</v>
       </c>
@@ -5098,7 +5108,7 @@
       <c r="H268" s="5"/>
       <c r="I268" s="16"/>
     </row>
-    <row r="269" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:11">
       <c r="B269" s="4">
         <v>41740</v>
       </c>
@@ -5118,7 +5128,7 @@
       <c r="H269" s="5"/>
       <c r="I269" s="16"/>
     </row>
-    <row r="270" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:11">
       <c r="B270" s="4">
         <v>41768</v>
       </c>
@@ -5138,7 +5148,7 @@
       <c r="H270" s="5"/>
       <c r="I270" s="16"/>
     </row>
-    <row r="271" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:11">
       <c r="B271" s="4">
         <v>41795</v>
       </c>
@@ -5158,7 +5168,7 @@
       <c r="H271" s="5"/>
       <c r="I271" s="16"/>
     </row>
-    <row r="272" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:11">
       <c r="B272" s="4">
         <v>41817</v>
       </c>
@@ -5178,7 +5188,7 @@
       <c r="H272" s="5"/>
       <c r="I272" s="16"/>
     </row>
-    <row r="273" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:9">
       <c r="B273" s="4">
         <v>41838</v>
       </c>
@@ -5198,7 +5208,7 @@
       <c r="H273" s="5"/>
       <c r="I273" s="16"/>
     </row>
-    <row r="274" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:9">
       <c r="B274" s="4">
         <v>41873</v>
       </c>
@@ -5218,7 +5228,7 @@
       <c r="H274" s="5"/>
       <c r="I274" s="16"/>
     </row>
-    <row r="275" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:9">
       <c r="B275" s="4">
         <v>41887</v>
       </c>
@@ -5238,7 +5248,7 @@
       <c r="H275" s="5"/>
       <c r="I275" s="16"/>
     </row>
-    <row r="276" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:9">
       <c r="B276" s="4">
         <v>41908</v>
       </c>
@@ -5258,7 +5268,7 @@
       <c r="H276" s="5"/>
       <c r="I276" s="16"/>
     </row>
-    <row r="277" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:9">
       <c r="B277" s="4">
         <v>41922</v>
       </c>
@@ -5278,7 +5288,7 @@
       <c r="H277" s="5"/>
       <c r="I277" s="16"/>
     </row>
-    <row r="278" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:9">
       <c r="B278" s="4">
         <v>41936</v>
       </c>
@@ -5298,7 +5308,7 @@
       <c r="H278" s="5"/>
       <c r="I278" s="16"/>
     </row>
-    <row r="279" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:9">
       <c r="B279" s="4">
         <v>41957</v>
       </c>
@@ -5318,7 +5328,7 @@
       <c r="H279" s="5"/>
       <c r="I279" s="16"/>
     </row>
-    <row r="280" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:9">
       <c r="B280" s="4">
         <v>41971</v>
       </c>
@@ -5338,7 +5348,7 @@
       <c r="H280" s="5"/>
       <c r="I280" s="16"/>
     </row>
-    <row r="281" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:9">
       <c r="B281" s="4">
         <v>41985</v>
       </c>
@@ -5358,7 +5368,7 @@
       <c r="H281" s="5"/>
       <c r="I281" s="16"/>
     </row>
-    <row r="282" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:9">
       <c r="B282" s="4">
         <v>42020</v>
       </c>
@@ -5378,7 +5388,7 @@
       <c r="H282" s="5"/>
       <c r="I282" s="16"/>
     </row>
-    <row r="283" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:9">
       <c r="B283" s="4">
         <v>42034</v>
       </c>
@@ -5400,7 +5410,7 @@
       </c>
       <c r="I283" s="16"/>
     </row>
-    <row r="284" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:9">
       <c r="B284" s="4">
         <v>42062</v>
       </c>
@@ -5422,7 +5432,7 @@
       </c>
       <c r="I284" s="16"/>
     </row>
-    <row r="285" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:9">
       <c r="B285" s="4">
         <v>42076</v>
       </c>
@@ -5444,7 +5454,7 @@
       </c>
       <c r="I285" s="16"/>
     </row>
-    <row r="286" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:9">
       <c r="B286" s="4">
         <v>42090</v>
       </c>
@@ -5466,7 +5476,7 @@
       </c>
       <c r="I286" s="16"/>
     </row>
-    <row r="287" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:9">
       <c r="B287" s="4">
         <v>42111</v>
       </c>
@@ -5486,7 +5496,7 @@
       <c r="H287" s="5"/>
       <c r="I287" s="16"/>
     </row>
-    <row r="288" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:9">
       <c r="B288" s="4">
         <v>42146</v>
       </c>
@@ -5506,7 +5516,7 @@
       <c r="H288" s="5"/>
       <c r="I288" s="16"/>
     </row>
-    <row r="289" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:9">
       <c r="B289" s="4">
         <v>42167</v>
       </c>
@@ -5526,7 +5536,7 @@
       <c r="H289" s="5"/>
       <c r="I289" s="16"/>
     </row>
-    <row r="290" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:9">
       <c r="B290" s="4">
         <v>42188</v>
       </c>
@@ -5546,7 +5556,7 @@
       <c r="H290" s="5"/>
       <c r="I290" s="16"/>
     </row>
-    <row r="291" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:9">
       <c r="B291" s="4">
         <v>42209</v>
       </c>
@@ -5566,7 +5576,7 @@
       <c r="H291" s="5"/>
       <c r="I291" s="16"/>
     </row>
-    <row r="292" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:9">
       <c r="B292" s="4">
         <v>42237</v>
       </c>
@@ -5586,7 +5596,7 @@
       <c r="H292" s="5"/>
       <c r="I292" s="16"/>
     </row>
-    <row r="293" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:9">
       <c r="B293" s="4">
         <v>42258</v>
       </c>
@@ -5606,7 +5616,7 @@
       <c r="H293" s="5"/>
       <c r="I293" s="16"/>
     </row>
-    <row r="294" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:9">
       <c r="B294" s="4">
         <v>42272</v>
       </c>
@@ -5626,7 +5636,7 @@
       <c r="H294" s="5"/>
       <c r="I294" s="16"/>
     </row>
-    <row r="295" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:9">
       <c r="B295" s="4">
         <v>42286</v>
       </c>
@@ -5646,7 +5656,7 @@
       <c r="H295" s="5"/>
       <c r="I295" s="16"/>
     </row>
-    <row r="296" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:9">
       <c r="B296" s="4">
         <v>42300</v>
       </c>
@@ -5666,7 +5676,7 @@
       <c r="H296" s="5"/>
       <c r="I296" s="16"/>
     </row>
-    <row r="297" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:9">
       <c r="B297" s="4">
         <v>42321</v>
       </c>
@@ -5686,7 +5696,7 @@
       <c r="H297" s="5"/>
       <c r="I297" s="16"/>
     </row>
-    <row r="298" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:9">
       <c r="B298" s="4">
         <v>42335</v>
       </c>
@@ -5706,7 +5716,7 @@
       <c r="H298" s="5"/>
       <c r="I298" s="16"/>
     </row>
-    <row r="299" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:9">
       <c r="B299" s="4">
         <v>42349</v>
       </c>
@@ -5726,7 +5736,7 @@
       <c r="H299" s="5"/>
       <c r="I299" s="16"/>
     </row>
-    <row r="300" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:9">
       <c r="B300" s="4">
         <v>42384</v>
       </c>
@@ -5746,7 +5756,7 @@
       <c r="H300" s="5"/>
       <c r="I300" s="16"/>
     </row>
-    <row r="301" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:9">
       <c r="B301" s="4">
         <v>42398</v>
       </c>
@@ -5766,7 +5776,7 @@
       <c r="H301" s="5"/>
       <c r="I301" s="16"/>
     </row>
-    <row r="302" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:9">
       <c r="B302" s="4">
         <v>42419</v>
       </c>
@@ -5786,7 +5796,7 @@
       <c r="H302" s="5"/>
       <c r="I302" s="16"/>
     </row>
-    <row r="303" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:9">
       <c r="B303" s="4">
         <v>42447</v>
       </c>
@@ -5806,7 +5816,7 @@
       <c r="H303" s="5"/>
       <c r="I303" s="16"/>
     </row>
-    <row r="304" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:9">
       <c r="B304" s="4">
         <v>42468</v>
       </c>
@@ -5828,7 +5838,7 @@
       </c>
       <c r="I304" s="16"/>
     </row>
-    <row r="305" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:9">
       <c r="B305" s="4">
         <v>42482</v>
       </c>
@@ -5850,7 +5860,7 @@
       </c>
       <c r="I305" s="16"/>
     </row>
-    <row r="306" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:9">
       <c r="B306" s="4">
         <v>42503</v>
       </c>
@@ -5872,7 +5882,7 @@
       </c>
       <c r="I306" s="16"/>
     </row>
-    <row r="307" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:9">
       <c r="B307" s="4">
         <v>42524</v>
       </c>
@@ -5894,7 +5904,7 @@
       </c>
       <c r="I307" s="16"/>
     </row>
-    <row r="308" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:9">
       <c r="B308" s="4">
         <v>42545</v>
       </c>
@@ -5916,7 +5926,7 @@
       </c>
       <c r="I308" s="16"/>
     </row>
-    <row r="309" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:9">
       <c r="B309" s="4">
         <v>42559</v>
       </c>
@@ -5938,7 +5948,7 @@
       </c>
       <c r="I309" s="16"/>
     </row>
-    <row r="310" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:9">
       <c r="B310" s="4">
         <v>42573</v>
       </c>
@@ -5960,7 +5970,7 @@
       </c>
       <c r="I310" s="16"/>
     </row>
-    <row r="311" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:9">
       <c r="B311" s="4">
         <v>42594</v>
       </c>
@@ -5982,7 +5992,7 @@
       </c>
       <c r="I311" s="16"/>
     </row>
-    <row r="312" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:9">
       <c r="B312" s="4">
         <v>42636</v>
       </c>
@@ -6004,7 +6014,7 @@
       </c>
       <c r="I312" s="16"/>
     </row>
-    <row r="313" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:9">
       <c r="B313" s="4">
         <v>42657</v>
       </c>
@@ -6026,7 +6036,7 @@
       </c>
       <c r="I313" s="16"/>
     </row>
-    <row r="314" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:9">
       <c r="B314" s="4">
         <v>42671</v>
       </c>
@@ -6048,7 +6058,7 @@
       </c>
       <c r="I314" s="16"/>
     </row>
-    <row r="315" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:9">
       <c r="B315" s="4">
         <v>42685</v>
       </c>
@@ -6070,7 +6080,7 @@
       </c>
       <c r="I315" s="16"/>
     </row>
-    <row r="316" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:9">
       <c r="B316" s="4">
         <v>42699</v>
       </c>
@@ -6092,7 +6102,7 @@
       </c>
       <c r="I316" s="16"/>
     </row>
-    <row r="317" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:9">
       <c r="B317" s="4">
         <v>42713</v>
       </c>
@@ -6114,7 +6124,7 @@
       </c>
       <c r="I317" s="16"/>
     </row>
-    <row r="318" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:9">
       <c r="B318" s="4">
         <v>42748</v>
       </c>
@@ -6136,7 +6146,7 @@
       </c>
       <c r="I318" s="16"/>
     </row>
-    <row r="319" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:9">
       <c r="B319" s="4">
         <v>42762</v>
       </c>
@@ -6160,7 +6170,7 @@
       </c>
       <c r="I319" s="16"/>
     </row>
-    <row r="320" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:9">
       <c r="B320" s="4">
         <v>42783</v>
       </c>
@@ -6184,7 +6194,7 @@
       </c>
       <c r="I320" s="16"/>
     </row>
-    <row r="321" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:9">
       <c r="B321" s="4">
         <v>42804</v>
       </c>
@@ -6208,7 +6218,7 @@
       </c>
       <c r="I321" s="16"/>
     </row>
-    <row r="322" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:9">
       <c r="B322" s="17">
         <v>42832</v>
       </c>
@@ -6231,7 +6241,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="323" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:9">
       <c r="B323" s="17">
         <v>42853</v>
       </c>
@@ -6262,8 +6272,13 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6273,11 +6288,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6287,10 +6307,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>